--- a/Winter_thermal_comfort_dataset/PMV_TSV.xlsx
+++ b/Winter_thermal_comfort_dataset/PMV_TSV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aikaterinikatsarou/Downloads/Winter thermal comfort and health in the elderly dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aikaterinikatsarou/Desktop/ThermalComfort/ThermalComfort/Winter_thermal_comfort_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58325256-D883-AD4A-9049-139EB130B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEE0653-6926-C849-BCE3-C577E74758FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="400" windowWidth="25600" windowHeight="15600" xr2:uid="{CE01D6A3-52ED-224C-8A32-761E43268261}"/>
+    <workbookView xWindow="0" yWindow="400" windowWidth="25600" windowHeight="15600" activeTab="1" xr2:uid="{CE01D6A3-52ED-224C-8A32-761E43268261}"/>
   </bookViews>
   <sheets>
     <sheet name="2016 17" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -37,22 +37,31 @@
     <t>TSV</t>
   </si>
   <si>
-    <t>December</t>
+    <t>November_16</t>
   </si>
   <si>
-    <t>January</t>
+    <t>December_16</t>
   </si>
   <si>
-    <t>February</t>
+    <t>January_17</t>
   </si>
   <si>
-    <t>March</t>
+    <t>February_17</t>
   </si>
   <si>
-    <t xml:space="preserve">February </t>
+    <t>March_17</t>
   </si>
   <si>
-    <t>November</t>
+    <t>December_17</t>
+  </si>
+  <si>
+    <t>January_18</t>
+  </si>
+  <si>
+    <t>March_18</t>
+  </si>
+  <si>
+    <t>February_18</t>
   </si>
 </sst>
 </file>
@@ -418,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911C7836-8B35-6D4E-8AC8-13DA53107D0B}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,23 +438,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -1583,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AF7B84-0182-7448-8AF2-270D93549456}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1594,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2"/>
     </row>
